--- a/pred_ohlcv/54_21/2020-01-11 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FNB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-2758818.990976814</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2758928.663876814</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2923559.359976814</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2722054.749776814</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3021947.846076814</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5436550.607076815</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5437438.607076815</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5438104.607076815</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8264342.546976813</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8739573.597976813</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8893746.523376813</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-13045811.4356124</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-13146250.2762124</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-8069947.816007758</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-8405913.937207758</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-8349081.809907759</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-7786380.086607759</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-7380061.026507759</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-7172939.597107759</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7213611.353607759</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-7213833.353607759</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-10166799.27700776</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-10349596.84280776</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-10726129.93910776</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4750756.059207759</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3382759.003807758</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3382359.003807758</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3374656.766007759</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3554992.223807759</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3852140.541707759</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6193556.053707758</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-7708056.105407758</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-7556152.576907758</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9514531.060444361</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-11094375.60634436</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-11345294.59664436</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-20653328.18949971</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-20653498.18949971</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-28233637.40369972</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-28556945.51559972</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-28302670.51219972</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-28300948.51219972</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-27622009.41209972</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-27631698.94049972</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-27631476.94049972</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-27681079.76099972</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-27476306.13039973</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-26976703.70319973</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FNB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-2758818.990976814</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2758928.663876814</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2705626.439376814</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2923559.359976814</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2737954.501976814</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2722054.749776814</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3019547.846076814</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3021947.846076814</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3427980.229176814</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-5266484.974576814</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5436550.607076815</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5437438.607076815</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5438104.607076815</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5437941.607076815</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5458829.607076815</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8264342.546976813</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8739573.597976813</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8893746.523376813</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-13045811.4356124</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-13146250.2762124</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-8069947.816007758</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-8405913.937207758</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-8349081.809907759</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-7786380.086607759</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-7380061.026507759</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-7172939.597107759</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7213611.353607759</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-7213833.353607759</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-10166799.27700776</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-10349596.84280776</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-10726129.93910776</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4750756.059207759</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3382759.003807758</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3382359.003807758</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3374656.766007759</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3554992.223807759</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3852140.541707759</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6193556.053707758</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-7708056.105407758</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-7556152.576907758</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9514531.060444361</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-11094375.60634436</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-11345294.59664436</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-20653328.18949971</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-20653498.18949971</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-28234058.19689972</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-28556945.51559972</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-28752248.37609972</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-28244366.15179972</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-28290570.55129972</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-28302670.51219972</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-28300948.51219972</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-27622009.41209972</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-27631698.94049972</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-27631476.94049972</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-27681079.76099972</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-27476306.13039973</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-26976703.70319973</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-26976703.70319973</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-26977324.70319973</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-26977723.70319973</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-26977556.70319973</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-26965356.70319973</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-26965179.70319973</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-26965356.70319973</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-26995755.70319973</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-26995578.70319973</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
